--- a/document/アプリ画面設計.xlsx
+++ b/document/アプリ画面設計.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D54EBA-A86B-8C45-B7CC-E5D793D1177D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13520" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧・遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -155,13 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>木村</t>
-    <rPh sb="0" eb="2">
-      <t>キムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>履歴</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -206,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +333,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,10 +373,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -413,7 +407,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -489,7 +489,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -567,7 +573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -643,7 +655,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -719,7 +737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -792,7 +816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -850,7 +880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -907,7 +943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -969,7 +1011,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1039,7 +1087,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1097,7 +1151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1154,7 +1214,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1211,7 +1277,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1281,7 +1353,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1351,7 +1429,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1421,7 +1505,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1491,7 +1581,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1566,7 +1662,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1620,7 +1722,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1677,7 +1785,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1751,7 +1865,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1808,7 +1928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1865,7 +1991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2172,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2182,17 +2314,17 @@
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2201,96 +2333,96 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="21" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2311,46 +2443,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="11">
         <v>44131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2358,7 +2488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" s="8" customFormat="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2369,32 +2499,32 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="69" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2410,47 +2540,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="11">
         <v>44131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2458,40 +2586,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="69" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2507,47 +2635,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="11">
         <v>44131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2555,40 +2681,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="69" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
